--- a/TestData/user_credentials.xlsx
+++ b/TestData/user_credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="18072" windowHeight="8172"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="17136" windowHeight="4236"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Rahul1</t>
-  </si>
-  <si>
-    <t>Thorat1</t>
   </si>
 </sst>
 </file>
@@ -358,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -374,14 +368,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
